--- a/data/depot/Spending Drivers - Population, Area, Density and Economics.xlsx
+++ b/data/depot/Spending Drivers - Population, Area, Density and Economics.xlsx
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2046,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,7 +2092,6 @@
         <v>314112078</v>
       </c>
       <c r="D3" s="3">
-        <f>C3/'State Area'!D3</f>
         <v>88.93559651236373</v>
       </c>
     </row>
@@ -2107,7 +2106,6 @@
         <v>4817484</v>
       </c>
       <c r="D4" s="5">
-        <f>C4/'State Area'!D4</f>
         <v>95.122598479612989</v>
       </c>
     </row>
@@ -2122,7 +2120,6 @@
         <v>731081</v>
       </c>
       <c r="D5" s="5">
-        <f>C5/'State Area'!D5</f>
         <v>1.2811575053317235</v>
       </c>
     </row>
@@ -2137,7 +2134,6 @@
         <v>6556236</v>
       </c>
       <c r="D6" s="5">
-        <f>C6/'State Area'!D6</f>
         <v>57.716393471486171</v>
       </c>
     </row>
@@ -2152,7 +2148,6 @@
         <v>2949300</v>
       </c>
       <c r="D7" s="5">
-        <f>C7/'State Area'!D7</f>
         <v>56.679158258864227</v>
       </c>
     </row>
@@ -2167,7 +2162,6 @@
         <v>38062780</v>
       </c>
       <c r="D8" s="5">
-        <f>C8/'State Area'!D8</f>
         <v>244.33832544823116</v>
       </c>
     </row>
@@ -2182,7 +2176,6 @@
         <v>5191709</v>
       </c>
       <c r="D9" s="5">
-        <f>C9/'State Area'!D9</f>
         <v>50.092713378746069</v>
       </c>
     </row>
@@ -2197,7 +2190,6 @@
         <v>3594362</v>
       </c>
       <c r="D10" s="5">
-        <f>C10/'State Area'!D10</f>
         <v>742.33002891367198</v>
       </c>
     </row>
@@ -2212,7 +2204,6 @@
         <v>916881</v>
       </c>
       <c r="D11" s="5">
-        <f>C11/'State Area'!D11</f>
         <v>470.43663417136992</v>
       </c>
     </row>
@@ -2227,7 +2218,6 @@
         <v>635040</v>
       </c>
       <c r="D12" s="5">
-        <f>C12/'State Area'!D12</f>
         <v>10410.491803278688</v>
       </c>
     </row>
@@ -2242,7 +2232,6 @@
         <v>19355257</v>
       </c>
       <c r="D13" s="5">
-        <f>C13/'State Area'!D13</f>
         <v>360.93719347319347</v>
       </c>
     </row>
@@ -2257,7 +2246,6 @@
         <v>9919000</v>
       </c>
       <c r="D14" s="5">
-        <f>C14/'State Area'!D14</f>
         <v>172.46535565872063</v>
       </c>
     </row>
@@ -2272,7 +2260,6 @@
         <v>1392766</v>
       </c>
       <c r="D15" s="5">
-        <f>C15/'State Area'!D15</f>
         <v>216.84041725050599</v>
       </c>
     </row>
@@ -2287,7 +2274,6 @@
         <v>1595590</v>
       </c>
       <c r="D16" s="5">
-        <f>C16/'State Area'!D16</f>
         <v>19.307019348281163</v>
       </c>
     </row>
@@ -2302,7 +2288,6 @@
         <v>12873763</v>
       </c>
       <c r="D17" s="5">
-        <f>C17/'State Area'!D17</f>
         <v>231.88031124479909</v>
       </c>
     </row>
@@ -2317,7 +2302,6 @@
         <v>6537632</v>
       </c>
       <c r="D18" s="5">
-        <f>C18/'State Area'!D18</f>
         <v>182.48288952157651</v>
       </c>
     </row>
@@ -2332,7 +2316,6 @@
         <v>3075935</v>
       </c>
       <c r="D19" s="5">
-        <f>C19/'State Area'!D19</f>
         <v>55.068030864529064</v>
       </c>
     </row>
@@ -2347,7 +2330,6 @@
         <v>2885966</v>
       </c>
       <c r="D20" s="5">
-        <f>C20/'State Area'!D20</f>
         <v>35.298450323511787</v>
       </c>
     </row>
@@ -2362,7 +2344,6 @@
         <v>4383465</v>
       </c>
       <c r="D21" s="5">
-        <f>C21/'State Area'!D21</f>
         <v>111.01314389910348</v>
       </c>
     </row>
@@ -2377,7 +2358,6 @@
         <v>4604744</v>
       </c>
       <c r="D22" s="5">
-        <f>C22/'State Area'!D22</f>
         <v>106.58142764558838</v>
       </c>
     </row>
@@ -2392,7 +2372,6 @@
         <v>1328592</v>
       </c>
       <c r="D23" s="5">
-        <f>C23/'State Area'!D23</f>
         <v>43.075965373018192</v>
       </c>
     </row>
@@ -2407,7 +2386,6 @@
         <v>5891819</v>
       </c>
       <c r="D24" s="5">
-        <f>C24/'State Area'!D24</f>
         <v>606.96600391470076</v>
       </c>
     </row>
@@ -2422,7 +2400,6 @@
         <v>6655829</v>
       </c>
       <c r="D25" s="5">
-        <f>C25/'State Area'!D25</f>
         <v>853.31141025641023</v>
       </c>
     </row>
@@ -2437,7 +2414,6 @@
         <v>9884781</v>
       </c>
       <c r="D26" s="5">
-        <f>C26/'State Area'!D26</f>
         <v>174.8311961654787</v>
       </c>
     </row>
@@ -2452,7 +2428,6 @@
         <v>5380615</v>
       </c>
       <c r="D27" s="5">
-        <f>C27/'State Area'!D27</f>
         <v>67.572745425546614</v>
       </c>
     </row>
@@ -2467,7 +2442,6 @@
         <v>2986137</v>
       </c>
       <c r="D28" s="5">
-        <f>C28/'State Area'!D28</f>
         <v>63.639089572277989</v>
       </c>
     </row>
@@ -2482,7 +2456,6 @@
         <v>6025281</v>
       </c>
       <c r="D29" s="5">
-        <f>C29/'State Area'!D29</f>
         <v>87.650650257484514</v>
       </c>
     </row>
@@ -2497,7 +2470,6 @@
         <v>1005163</v>
       </c>
       <c r="D30" s="5">
-        <f>C30/'State Area'!D30</f>
         <v>6.9061533810616575</v>
       </c>
     </row>
@@ -2512,7 +2484,6 @@
         <v>1855487</v>
       </c>
       <c r="D31" s="5">
-        <f>C31/'State Area'!D31</f>
         <v>24.152439341872331</v>
       </c>
     </row>
@@ -2527,7 +2498,6 @@
         <v>2755245</v>
       </c>
       <c r="D32" s="5">
-        <f>C32/'State Area'!D32</f>
         <v>25.097648955648062</v>
       </c>
     </row>
@@ -2542,7 +2512,6 @@
         <v>1321297</v>
       </c>
       <c r="D33" s="5">
-        <f>C33/'State Area'!D33</f>
         <v>147.58148106779851</v>
       </c>
     </row>
@@ -2557,7 +2526,6 @@
         <v>8876000</v>
       </c>
       <c r="D34" s="5">
-        <f>C34/'State Area'!D34</f>
         <v>1206.9621974435681</v>
       </c>
     </row>
@@ -2572,7 +2540,6 @@
         <v>2084594</v>
       </c>
       <c r="D35" s="5">
-        <f>C35/'State Area'!D35</f>
         <v>17.185724414252501</v>
       </c>
     </row>
@@ -2587,7 +2554,6 @@
         <v>19607140</v>
       </c>
       <c r="D36" s="5">
-        <f>C36/'State Area'!D36</f>
         <v>416.05780248694987</v>
       </c>
     </row>
@@ -2602,7 +2568,6 @@
         <v>9748181</v>
       </c>
       <c r="D37" s="5">
-        <f>C37/'State Area'!D37</f>
         <v>200.50559463573163</v>
       </c>
     </row>
@@ -2617,7 +2582,6 @@
         <v>701705</v>
       </c>
       <c r="D38" s="5">
-        <f>C38/'State Area'!D38</f>
         <v>10.169490297242069</v>
       </c>
     </row>
@@ -2632,7 +2596,6 @@
         <v>11550901</v>
       </c>
       <c r="D39" s="5">
-        <f>C39/'State Area'!D39</f>
         <v>282.68767284207433</v>
       </c>
     </row>
@@ -2647,7 +2610,6 @@
         <v>3817059</v>
       </c>
       <c r="D40" s="5">
-        <f>C40/'State Area'!D40</f>
         <v>55.646315329105619</v>
       </c>
     </row>
@@ -2662,7 +2624,6 @@
         <v>3898684</v>
       </c>
       <c r="D41" s="5">
-        <f>C41/'State Area'!D41</f>
         <v>40.616368712755758</v>
       </c>
     </row>
@@ -2677,7 +2638,6 @@
         <v>12770043</v>
       </c>
       <c r="D42" s="5">
-        <f>C42/'State Area'!D42</f>
         <v>285.40873432715733</v>
       </c>
     </row>
@@ -2692,7 +2652,6 @@
         <v>1052637</v>
       </c>
       <c r="D43" s="5">
-        <f>C43/'State Area'!D43</f>
         <v>1018.0241779497098</v>
       </c>
     </row>
@@ -2707,7 +2666,6 @@
         <v>4722621</v>
       </c>
       <c r="D44" s="5">
-        <f>C44/'State Area'!D44</f>
         <v>157.10126076976815</v>
       </c>
     </row>
@@ -2722,7 +2680,6 @@
         <v>834504</v>
       </c>
       <c r="D45" s="5">
-        <f>C45/'State Area'!D45</f>
         <v>11.007690176887259</v>
       </c>
     </row>
@@ -2737,7 +2694,6 @@
         <v>6455177</v>
       </c>
       <c r="D46" s="5">
-        <f>C46/'State Area'!D46</f>
         <v>156.54606523584334</v>
       </c>
     </row>
@@ -2752,7 +2708,6 @@
         <v>26094422</v>
       </c>
       <c r="D47" s="5">
-        <f>C47/'State Area'!D47</f>
         <v>99.889837385925148</v>
       </c>
     </row>
@@ -2767,7 +2722,6 @@
         <v>2855194</v>
       </c>
       <c r="D48" s="5">
-        <f>C48/'State Area'!D48</f>
         <v>34.747401728124622</v>
       </c>
     </row>
@@ -2782,7 +2736,6 @@
         <v>626138</v>
       </c>
       <c r="D49" s="5">
-        <f>C49/'State Area'!D49</f>
         <v>67.93294998372572</v>
       </c>
     </row>
@@ -2797,7 +2750,6 @@
         <v>8193422</v>
       </c>
       <c r="D50" s="5">
-        <f>C50/'State Area'!D50</f>
         <v>207.48093188148897</v>
       </c>
     </row>
@@ -2812,7 +2764,6 @@
         <v>6896325</v>
       </c>
       <c r="D51" s="5">
-        <f>C51/'State Area'!D51</f>
         <v>103.77279703864211</v>
       </c>
     </row>
@@ -2827,7 +2778,6 @@
         <v>1856313</v>
       </c>
       <c r="D52" s="5">
-        <f>C52/'State Area'!D52</f>
         <v>77.224103502787258</v>
       </c>
     </row>
@@ -2842,7 +2792,6 @@
         <v>5724888</v>
       </c>
       <c r="D53" s="5">
-        <f>C53/'State Area'!D53</f>
         <v>105.70715314450312</v>
       </c>
     </row>
@@ -2857,7 +2806,6 @@
         <v>576893</v>
       </c>
       <c r="D54" s="5">
-        <f>C54/'State Area'!D54</f>
         <v>5.9416538782404498</v>
       </c>
     </row>
@@ -2943,7 +2891,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
